--- a/data/Michael Jordan Stats.xlsx
+++ b/data/Michael Jordan Stats.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PP\Documents\nss-data-analytics\GH-Personal-Repos\Jordan_vs_Lebron_apeay905\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3D2A515D-9B3C-4131-B54D-E6AE9A338D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2A6936-239C-4E9B-8683-93484AB103A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Michael Jordan Stats" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="63">
   <si>
     <t>Year</t>
   </si>
@@ -214,7 +226,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -755,6 +767,1080 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Michael Jordan Stats'!$E$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MJ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Michael Jordan Stats'!$F$38:$G$38</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Michael Jordan Stats'!$F$39:$G$39</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1072</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1039</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EC1B-412D-BBDD-1D4767BB754B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Michael Jordan Stats'!$E$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Michael Jordan Stats'!$F$38:$G$38</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Michael Jordan Stats'!$F$40:$G$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1265</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1264</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EC1B-412D-BBDD-1D4767BB754B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1960219631"/>
+        <c:axId val="1960222959"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1960219631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1960222959"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1960222959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1960219631"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>565896</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>61631</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>178173</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F88F090A-2A86-4B53-9289-AC4AE51FE298}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1051,11 +2137,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+      <selection sqref="A1:AD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4196,6 +5282,9 @@
       </c>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="E38" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="F38" s="3" t="s">
         <v>5</v>
       </c>
@@ -4277,15 +5366,15 @@
         <v>61</v>
       </c>
       <c r="F39" s="2">
-        <f>AVERAGE(F2:F16)</f>
-        <v>71.466666666666669</v>
+        <f>SUM(F2:F16)</f>
+        <v>1072</v>
       </c>
       <c r="G39" s="2">
-        <f t="shared" ref="G39:AD39" si="0">AVERAGE(G2:G16)</f>
-        <v>69.266666666666666</v>
+        <f>SUM(G2:G16)</f>
+        <v>1039</v>
       </c>
       <c r="H39" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G39:AD39" si="0">AVERAGE(H2:H16)</f>
         <v>37.580000000000005</v>
       </c>
       <c r="I39" s="2">
@@ -4382,15 +5471,15 @@
         <v>62</v>
       </c>
       <c r="F40" s="2">
-        <f>AVERAGE(F18:F34)</f>
-        <v>74.411764705882348</v>
+        <f>SUM(F18:F34)</f>
+        <v>1265</v>
       </c>
       <c r="G40" s="2">
-        <f t="shared" ref="G40:AD40" si="1">AVERAGE(G18:G34)</f>
-        <v>74.352941176470594</v>
+        <f>SUM(G18:G34)</f>
+        <v>1264</v>
       </c>
       <c r="H40" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G40:AD40" si="1">AVERAGE(H18:H34)</f>
         <v>38.264705882352949</v>
       </c>
       <c r="I40" s="2">
@@ -4485,5 +5574,20 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DED5382-6B40-4741-BD6A-2750ECFE770F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Michael Jordan Stats.xlsx
+++ b/data/Michael Jordan Stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PP\Documents\nss-data-analytics\GH-Personal-Repos\Jordan_vs_Lebron_apeay905\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2A6936-239C-4E9B-8683-93484AB103A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1E2600-BC89-434E-89F0-277840A54943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Michael Jordan Stats" sheetId="1" r:id="rId1"/>
@@ -660,7 +660,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -703,14 +703,16 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -750,6 +752,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -2138,10 +2141,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD40"/>
+  <dimension ref="A1:AD46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:AD35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38:AD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5374,7 +5377,7 @@
         <v>1039</v>
       </c>
       <c r="H39" s="2">
-        <f t="shared" ref="G39:AD39" si="0">AVERAGE(H2:H16)</f>
+        <f t="shared" ref="H39:AD39" si="0">AVERAGE(H2:H16)</f>
         <v>37.580000000000005</v>
       </c>
       <c r="I39" s="2">
@@ -5385,7 +5388,7 @@
         <f t="shared" si="0"/>
         <v>22.700000000000003</v>
       </c>
-      <c r="K39" s="2">
+      <c r="K39" s="4">
         <f t="shared" si="0"/>
         <v>0.48826666666666668</v>
       </c>
@@ -5397,7 +5400,7 @@
         <f t="shared" si="0"/>
         <v>1.62</v>
       </c>
-      <c r="N39" s="2">
+      <c r="N39" s="4">
         <f t="shared" si="0"/>
         <v>0.28393333333333337</v>
       </c>
@@ -5409,11 +5412,11 @@
         <f t="shared" si="0"/>
         <v>21.073333333333331</v>
       </c>
-      <c r="Q39" s="2">
+      <c r="Q39" s="4">
         <f t="shared" si="0"/>
         <v>0.50066666666666682</v>
       </c>
-      <c r="R39" s="2">
+      <c r="R39" s="4">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
@@ -5425,7 +5428,7 @@
         <f t="shared" si="0"/>
         <v>8.0666666666666664</v>
       </c>
-      <c r="U39" s="2">
+      <c r="U39" s="4">
         <f t="shared" si="0"/>
         <v>0.83093333333333341</v>
       </c>
@@ -5479,7 +5482,7 @@
         <v>1264</v>
       </c>
       <c r="H40" s="2">
-        <f t="shared" ref="G40:AD40" si="1">AVERAGE(H18:H34)</f>
+        <f t="shared" ref="H40:AD40" si="1">AVERAGE(H18:H34)</f>
         <v>38.264705882352949</v>
       </c>
       <c r="I40" s="2">
@@ -5490,7 +5493,7 @@
         <f t="shared" si="1"/>
         <v>19.576470588235296</v>
       </c>
-      <c r="K40" s="2">
+      <c r="K40" s="4">
         <f t="shared" si="1"/>
         <v>0.50558823529411756</v>
       </c>
@@ -5502,7 +5505,7 @@
         <f t="shared" si="1"/>
         <v>4.3294117647058821</v>
       </c>
-      <c r="N40" s="2">
+      <c r="N40" s="4">
         <f t="shared" si="1"/>
         <v>0.34376470588235303</v>
       </c>
@@ -5514,11 +5517,11 @@
         <f t="shared" si="1"/>
         <v>15.235294117647058</v>
       </c>
-      <c r="Q40" s="2">
+      <c r="Q40" s="4">
         <f t="shared" si="1"/>
         <v>0.5526470588235296</v>
       </c>
-      <c r="R40" s="2">
+      <c r="R40" s="4">
         <f t="shared" si="1"/>
         <v>0.54382352941176482</v>
       </c>
@@ -5530,7 +5533,7 @@
         <f t="shared" si="1"/>
         <v>7.958823529411764</v>
       </c>
-      <c r="U40" s="2">
+      <c r="U40" s="4">
         <f t="shared" si="1"/>
         <v>0.73152941176470576</v>
       </c>
@@ -5569,6 +5572,11 @@
       <c r="AD40" s="2">
         <f t="shared" si="1"/>
         <v>27.047058823529412</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="R46">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/data/Michael Jordan Stats.xlsx
+++ b/data/Michael Jordan Stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PP\Documents\nss-data-analytics\GH-Personal-Repos\Jordan_vs_Lebron_apeay905\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1E2600-BC89-434E-89F0-277840A54943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1E1850-4340-4547-94DE-DFDCB7DB65D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34050" yWindow="1395" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Michael Jordan Stats" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="62">
   <si>
     <t>Year</t>
   </si>
@@ -137,9 +137,6 @@
   </si>
   <si>
     <t>22</t>
-  </si>
-  <si>
-    <t>Michael Jordan*</t>
   </si>
   <si>
     <t>23</t>
@@ -826,7 +823,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Michael Jordan Stats'!$E$39</c:f>
+              <c:f>'Michael Jordan Stats'!$E$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -911,7 +908,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Michael Jordan Stats'!$F$38:$G$38</c:f>
+              <c:f>'Michael Jordan Stats'!$F$37:$G$37</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -925,7 +922,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Michael Jordan Stats'!$F$39:$G$39</c:f>
+              <c:f>'Michael Jordan Stats'!$F$38:$G$38</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
@@ -949,7 +946,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Michael Jordan Stats'!$E$40</c:f>
+              <c:f>'Michael Jordan Stats'!$E$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1034,7 +1031,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Michael Jordan Stats'!$F$38:$G$38</c:f>
+              <c:f>'Michael Jordan Stats'!$F$37:$G$37</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1048,7 +1045,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Michael Jordan Stats'!$F$40:$G$40</c:f>
+              <c:f>'Michael Jordan Stats'!$F$39:$G$39</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1809,13 +1806,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>565896</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>61631</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>178173</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2141,14 +2138,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD46"/>
+  <dimension ref="A1:AD45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38:AD40"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
     <col min="6" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -2437,13 +2435,13 @@
         <v>1987</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
         <v>33</v>
@@ -2529,13 +2527,13 @@
         <v>1988</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
         <v>33</v>
@@ -2621,13 +2619,13 @@
         <v>1989</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
         <v>33</v>
@@ -2713,13 +2711,13 @@
         <v>1990</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
         <v>33</v>
@@ -2805,13 +2803,13 @@
         <v>1991</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
         <v>33</v>
@@ -2897,13 +2895,13 @@
         <v>1992</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
         <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
         <v>33</v>
@@ -2989,13 +2987,13 @@
         <v>1993</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
         <v>33</v>
@@ -3081,13 +3079,13 @@
         <v>1994</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
         <v>33</v>
@@ -3173,13 +3171,13 @@
         <v>1996</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
         <v>33</v>
@@ -3265,13 +3263,13 @@
         <v>1997</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
         <v>33</v>
@@ -3357,13 +3355,13 @@
         <v>1998</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E14" t="s">
         <v>33</v>
@@ -3449,16 +3447,16 @@
         <v>2002</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
         <v>47</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>48</v>
-      </c>
-      <c r="E15" t="s">
-        <v>49</v>
       </c>
       <c r="F15" s="1">
         <v>60</v>
@@ -3541,16 +3539,16 @@
         <v>2003</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F16" s="1">
         <v>82</v>
@@ -3626,842 +3624,934 @@
       </c>
       <c r="AD16" s="1">
         <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2004</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="1">
+        <v>79</v>
+      </c>
+      <c r="G17" s="1">
+        <v>79</v>
+      </c>
+      <c r="H17" s="1">
+        <v>39.5</v>
+      </c>
+      <c r="I17" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="J17" s="1">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="M17" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O17" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="P17" s="1">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0.438</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0.438</v>
+      </c>
+      <c r="S17" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="T17" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="U17" s="1">
+        <v>0.754</v>
+      </c>
+      <c r="V17" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="W17" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="X17" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>20.9</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" t="s">
         <v>52</v>
       </c>
-      <c r="E18" t="s">
-        <v>53</v>
-      </c>
       <c r="F18" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G18" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H18" s="1">
-        <v>39.5</v>
+        <v>42.4</v>
       </c>
       <c r="I18" s="1">
-        <v>7.9</v>
+        <v>9.9</v>
       </c>
       <c r="J18" s="1">
-        <v>18.899999999999999</v>
+        <v>21.1</v>
       </c>
       <c r="K18" s="1">
-        <v>0.41699999999999998</v>
+        <v>0.47199999999999998</v>
       </c>
       <c r="L18" s="1">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="M18" s="1">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="N18" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="O18" s="1">
-        <v>7.1</v>
+        <v>8.6</v>
       </c>
       <c r="P18" s="1">
-        <v>16.100000000000001</v>
+        <v>17.2</v>
       </c>
       <c r="Q18" s="1">
-        <v>0.438</v>
+        <v>0.499</v>
       </c>
       <c r="R18" s="1">
-        <v>0.438</v>
+        <v>0.504</v>
       </c>
       <c r="S18" s="1">
-        <v>4.4000000000000004</v>
+        <v>6</v>
       </c>
       <c r="T18" s="1">
-        <v>5.8</v>
+        <v>8</v>
       </c>
       <c r="U18" s="1">
-        <v>0.754</v>
+        <v>0.75</v>
       </c>
       <c r="V18" s="1">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="W18" s="1">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="X18" s="1">
-        <v>5.5</v>
+        <v>7.4</v>
       </c>
       <c r="Y18" s="1">
-        <v>5.9</v>
+        <v>7.2</v>
       </c>
       <c r="Z18" s="1">
-        <v>1.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AA18" s="1">
         <v>0.7</v>
       </c>
       <c r="AB18" s="1">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="AC18" s="1">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AD18" s="1">
-        <v>20.9</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F19" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G19" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H19" s="1">
-        <v>42.4</v>
+        <v>42.5</v>
       </c>
       <c r="I19" s="1">
-        <v>9.9</v>
+        <v>11.1</v>
       </c>
       <c r="J19" s="1">
-        <v>21.1</v>
+        <v>23.1</v>
       </c>
       <c r="K19" s="1">
-        <v>0.47199999999999998</v>
+        <v>0.48</v>
       </c>
       <c r="L19" s="1">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="M19" s="1">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="N19" s="1">
-        <v>0.35099999999999998</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="O19" s="1">
-        <v>8.6</v>
+        <v>9.5</v>
       </c>
       <c r="P19" s="1">
-        <v>17.2</v>
+        <v>18.3</v>
       </c>
       <c r="Q19" s="1">
-        <v>0.499</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="R19" s="1">
-        <v>0.504</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="S19" s="1">
-        <v>6</v>
+        <v>7.6</v>
       </c>
       <c r="T19" s="1">
-        <v>8</v>
+        <v>10.3</v>
       </c>
       <c r="U19" s="1">
-        <v>0.75</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="V19" s="1">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="W19" s="1">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="X19" s="1">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="Y19" s="1">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="Z19" s="1">
-        <v>2.2000000000000002</v>
+        <v>1.6</v>
       </c>
       <c r="AA19" s="1">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AB19" s="1">
         <v>3.3</v>
       </c>
       <c r="AC19" s="1">
-        <v>1.8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AD19" s="1">
-        <v>27.2</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F20" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G20" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H20" s="1">
-        <v>42.5</v>
+        <v>40.9</v>
       </c>
       <c r="I20" s="1">
-        <v>11.1</v>
+        <v>9.9</v>
       </c>
       <c r="J20" s="1">
-        <v>23.1</v>
+        <v>20.8</v>
       </c>
       <c r="K20" s="1">
-        <v>0.48</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="L20" s="1">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="M20" s="1">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="N20" s="1">
-        <v>0.33500000000000002</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>9.5</v>
+        <v>8.6</v>
       </c>
       <c r="P20" s="1">
-        <v>18.3</v>
+        <v>16.8</v>
       </c>
       <c r="Q20" s="1">
-        <v>0.51800000000000002</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>0.51500000000000001</v>
+        <v>0.50700000000000001</v>
       </c>
       <c r="S20" s="1">
-        <v>7.6</v>
+        <v>6.3</v>
       </c>
       <c r="T20" s="1">
-        <v>10.3</v>
+        <v>9</v>
       </c>
       <c r="U20" s="1">
-        <v>0.73799999999999999</v>
+        <v>0.69799999999999995</v>
       </c>
       <c r="V20" s="1">
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>6.1</v>
+        <v>5.7</v>
       </c>
       <c r="X20" s="1">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="Y20" s="1">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="Z20" s="1">
         <v>1.6</v>
       </c>
       <c r="AA20" s="1">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AB20" s="1">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AC20" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AD20" s="1">
-        <v>31.4</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F21" s="1">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G21" s="1">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H21" s="1">
-        <v>40.9</v>
+        <v>40.4</v>
       </c>
       <c r="I21" s="1">
-        <v>9.9</v>
+        <v>10.6</v>
       </c>
       <c r="J21" s="1">
-        <v>20.8</v>
+        <v>21.9</v>
       </c>
       <c r="K21" s="1">
-        <v>0.47599999999999998</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="L21" s="1">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="M21" s="1">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="N21" s="1">
-        <v>0.31900000000000001</v>
+        <v>0.315</v>
       </c>
       <c r="O21" s="1">
-        <v>8.6</v>
+        <v>9.1</v>
       </c>
       <c r="P21" s="1">
-        <v>16.8</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="Q21" s="1">
-        <v>0.51300000000000001</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="R21" s="1">
-        <v>0.50700000000000001</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="S21" s="1">
-        <v>6.3</v>
+        <v>7.3</v>
       </c>
       <c r="T21" s="1">
-        <v>9</v>
+        <v>10.3</v>
       </c>
       <c r="U21" s="1">
-        <v>0.69799999999999995</v>
+        <v>0.71199999999999997</v>
       </c>
       <c r="V21" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="W21" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="X21" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="AA21" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="W21" s="1">
-        <v>5.7</v>
-      </c>
-      <c r="X21" s="1">
-        <v>6.7</v>
-      </c>
-      <c r="Y21" s="1">
-        <v>6</v>
-      </c>
-      <c r="Z21" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="AA21" s="1">
-        <v>0.7</v>
-      </c>
       <c r="AB21" s="1">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AC21" s="1">
         <v>2.2000000000000002</v>
       </c>
       <c r="AD21" s="1">
-        <v>27.3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D22" t="s">
         <v>36</v>
       </c>
       <c r="E22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F22" s="1">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G22" s="1">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H22" s="1">
-        <v>40.4</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="I22" s="1">
-        <v>10.6</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="J22" s="1">
-        <v>21.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="K22" s="1">
-        <v>0.48399999999999999</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="L22" s="1">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="M22" s="1">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="N22" s="1">
-        <v>0.315</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="O22" s="1">
-        <v>9.1</v>
+        <v>8.1</v>
       </c>
       <c r="P22" s="1">
-        <v>17.100000000000001</v>
+        <v>15.2</v>
       </c>
       <c r="Q22" s="1">
-        <v>0.53100000000000003</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="R22" s="1">
-        <v>0.51800000000000002</v>
+        <v>0.53</v>
       </c>
       <c r="S22" s="1">
         <v>7.3</v>
       </c>
       <c r="T22" s="1">
-        <v>10.3</v>
+        <v>9.4</v>
       </c>
       <c r="U22" s="1">
-        <v>0.71199999999999997</v>
+        <v>0.78</v>
       </c>
       <c r="V22" s="1">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="W22" s="1">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="X22" s="1">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="Y22" s="1">
         <v>7.2</v>
       </c>
       <c r="Z22" s="1">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AA22" s="1">
         <v>1.1000000000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="AC22" s="1">
-        <v>2.2000000000000002</v>
+        <v>1.7</v>
       </c>
       <c r="AD22" s="1">
-        <v>30</v>
+        <v>28.4</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
         <v>37</v>
       </c>
       <c r="E23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F23" s="1">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G23" s="1">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H23" s="1">
-        <v>37.700000000000003</v>
+        <v>39</v>
       </c>
       <c r="I23" s="1">
-        <v>9.6999999999999993</v>
+        <v>10.1</v>
       </c>
       <c r="J23" s="1">
-        <v>19.899999999999999</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="K23" s="1">
-        <v>0.48899999999999999</v>
+        <v>0.503</v>
       </c>
       <c r="L23" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="M23" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="O23" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="P23" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="R23" s="1">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="S23" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="T23" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="U23" s="1">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="V23" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="W23" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="X23" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>8.6</v>
+      </c>
+      <c r="Z23" s="1">
         <v>1.6</v>
       </c>
-      <c r="M23" s="1">
-        <v>4.7</v>
-      </c>
-      <c r="N23" s="1">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="O23" s="1">
-        <v>8.1</v>
-      </c>
-      <c r="P23" s="1">
-        <v>15.2</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>0.53500000000000003</v>
-      </c>
-      <c r="R23" s="1">
-        <v>0.53</v>
-      </c>
-      <c r="S23" s="1">
-        <v>7.3</v>
-      </c>
-      <c r="T23" s="1">
-        <v>9.4</v>
-      </c>
-      <c r="U23" s="1">
-        <v>0.78</v>
-      </c>
-      <c r="V23" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="W23" s="1">
-        <v>6.3</v>
-      </c>
-      <c r="X23" s="1">
-        <v>7.6</v>
-      </c>
-      <c r="Y23" s="1">
-        <v>7.2</v>
-      </c>
-      <c r="Z23" s="1">
-        <v>1.7</v>
-      </c>
       <c r="AA23" s="1">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB23" s="1">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="AC23" s="1">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="AD23" s="1">
-        <v>28.4</v>
+        <v>29.7</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
         <v>38</v>
       </c>
       <c r="E24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F24" s="1">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G24" s="1">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H24" s="1">
-        <v>39</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="I24" s="1">
-        <v>10.1</v>
+        <v>9.6</v>
       </c>
       <c r="J24" s="1">
-        <v>20.100000000000001</v>
+        <v>18.8</v>
       </c>
       <c r="K24" s="1">
-        <v>0.503</v>
+        <v>0.51</v>
       </c>
       <c r="L24" s="1">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="M24" s="1">
-        <v>5.0999999999999996</v>
+        <v>3.5</v>
       </c>
       <c r="N24" s="1">
-        <v>0.33300000000000002</v>
+        <v>0.33</v>
       </c>
       <c r="O24" s="1">
         <v>8.4</v>
       </c>
       <c r="P24" s="1">
-        <v>15</v>
+        <v>15.3</v>
       </c>
       <c r="Q24" s="1">
-        <v>0.56000000000000005</v>
+        <v>0.55200000000000005</v>
       </c>
       <c r="R24" s="1">
-        <v>0.54500000000000004</v>
+        <v>0.54100000000000004</v>
       </c>
       <c r="S24" s="1">
-        <v>7.8</v>
+        <v>6.4</v>
       </c>
       <c r="T24" s="1">
-        <v>10.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="U24" s="1">
-        <v>0.76700000000000002</v>
+        <v>0.75900000000000001</v>
       </c>
       <c r="V24" s="1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="W24" s="1">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="X24" s="1">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="Y24" s="1">
-        <v>8.6</v>
+        <v>7</v>
       </c>
       <c r="Z24" s="1">
         <v>1.6</v>
       </c>
       <c r="AA24" s="1">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AB24" s="1">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AC24" s="1">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="AD24" s="1">
-        <v>29.7</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D25" t="s">
         <v>39</v>
       </c>
       <c r="E25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F25" s="1">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="G25" s="1">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="H25" s="1">
-        <v>38.799999999999997</v>
+        <v>37.5</v>
       </c>
       <c r="I25" s="1">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="J25" s="1">
-        <v>18.8</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="K25" s="1">
-        <v>0.51</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="L25" s="1">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="M25" s="1">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="N25" s="1">
-        <v>0.33</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>8.4</v>
+        <v>9.1</v>
       </c>
       <c r="P25" s="1">
-        <v>15.3</v>
+        <v>16.5</v>
       </c>
       <c r="Q25" s="1">
-        <v>0.55200000000000005</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="R25" s="1">
-        <v>0.54100000000000004</v>
+        <v>0.55400000000000005</v>
       </c>
       <c r="S25" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="T25" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="U25" s="1">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="V25" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="W25" s="1">
         <v>6.4</v>
       </c>
-      <c r="T25" s="1">
-        <v>8.4</v>
-      </c>
-      <c r="U25" s="1">
-        <v>0.75900000000000001</v>
-      </c>
-      <c r="V25" s="1">
-        <v>1</v>
-      </c>
-      <c r="W25" s="1">
-        <v>6.5</v>
-      </c>
       <c r="X25" s="1">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="Y25" s="1">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="Z25" s="1">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="AA25" s="1">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AB25" s="1">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AC25" s="1">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="AD25" s="1">
-        <v>26.7</v>
+        <v>27.1</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="D26" t="s">
         <v>40</v>
       </c>
       <c r="E26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F26" s="1">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="G26" s="1">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="H26" s="1">
-        <v>37.5</v>
+        <v>37.9</v>
       </c>
       <c r="I26" s="1">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="J26" s="1">
-        <v>18.899999999999999</v>
+        <v>17.8</v>
       </c>
       <c r="K26" s="1">
-        <v>0.53100000000000003</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="L26" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="M26" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="O26" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="P26" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="R26" s="1">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="S26" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="T26" s="1">
+        <v>7</v>
+      </c>
+      <c r="U26" s="1">
+        <v>0.753</v>
+      </c>
+      <c r="V26" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="W26" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="X26" s="1">
+        <v>8</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="AA26" s="1">
         <v>0.9</v>
       </c>
-      <c r="M26" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="N26" s="1">
-        <v>0.36199999999999999</v>
-      </c>
-      <c r="O26" s="1">
-        <v>9.1</v>
-      </c>
-      <c r="P26" s="1">
-        <v>16.5</v>
-      </c>
-      <c r="Q26" s="1">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="R26" s="1">
-        <v>0.55400000000000005</v>
-      </c>
-      <c r="S26" s="1">
-        <v>6.2</v>
-      </c>
-      <c r="T26" s="1">
-        <v>8.1</v>
-      </c>
-      <c r="U26" s="1">
-        <v>0.77100000000000002</v>
-      </c>
-      <c r="V26" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="W26" s="1">
-        <v>6.4</v>
-      </c>
-      <c r="X26" s="1">
-        <v>7.9</v>
-      </c>
-      <c r="Y26" s="1">
-        <v>6.2</v>
-      </c>
-      <c r="Z26" s="1">
-        <v>1.9</v>
-      </c>
-      <c r="AA26" s="1">
-        <v>0.8</v>
-      </c>
       <c r="AB26" s="1">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="AC26" s="1">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AD26" s="1">
-        <v>27.1</v>
+        <v>26.8</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -4470,263 +4560,263 @@
         <v>41</v>
       </c>
       <c r="E27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F27" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G27" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H27" s="1">
-        <v>37.9</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="I27" s="1">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="J27" s="1">
-        <v>17.8</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="K27" s="1">
-        <v>0.56499999999999995</v>
+        <v>0.56699999999999995</v>
       </c>
       <c r="L27" s="1">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="M27" s="1">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N27" s="1">
-        <v>0.40600000000000003</v>
+        <v>0.379</v>
       </c>
       <c r="O27" s="1">
-        <v>8.6999999999999993</v>
+        <v>8.5</v>
       </c>
       <c r="P27" s="1">
-        <v>14.5</v>
+        <v>13.6</v>
       </c>
       <c r="Q27" s="1">
-        <v>0.60199999999999998</v>
+        <v>0.622</v>
       </c>
       <c r="R27" s="1">
-        <v>0.60299999999999998</v>
+        <v>0.61</v>
       </c>
       <c r="S27" s="1">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="T27" s="1">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="U27" s="1">
-        <v>0.753</v>
+        <v>0.75</v>
       </c>
       <c r="V27" s="1">
-        <v>1.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="W27" s="1">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="X27" s="1">
-        <v>8</v>
+        <v>6.9</v>
       </c>
       <c r="Y27" s="1">
-        <v>7.3</v>
+        <v>6.3</v>
       </c>
       <c r="Z27" s="1">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="AA27" s="1">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="AB27" s="1">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="AC27" s="1">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AD27" s="1">
-        <v>26.8</v>
+        <v>27.1</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D28" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F28" s="1">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G28" s="1">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="H28" s="1">
-        <v>37.700000000000003</v>
+        <v>36.1</v>
       </c>
       <c r="I28" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J28" s="1">
-        <v>17.600000000000001</v>
+        <v>18.5</v>
       </c>
       <c r="K28" s="1">
-        <v>0.56699999999999995</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="L28" s="1">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="M28" s="1">
-        <v>4</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="N28" s="1">
-        <v>0.379</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="O28" s="1">
-        <v>8.5</v>
+        <v>7.3</v>
       </c>
       <c r="P28" s="1">
         <v>13.6</v>
       </c>
       <c r="Q28" s="1">
-        <v>0.622</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="R28" s="1">
-        <v>0.61</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="S28" s="1">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="T28" s="1">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="U28" s="1">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="V28" s="1">
-        <v>1.1000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="W28" s="1">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="X28" s="1">
-        <v>6.9</v>
+        <v>6</v>
       </c>
       <c r="Y28" s="1">
-        <v>6.3</v>
+        <v>7.4</v>
       </c>
       <c r="Z28" s="1">
         <v>1.6</v>
       </c>
       <c r="AA28" s="1">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="AB28" s="1">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="AC28" s="1">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AD28" s="1">
-        <v>27.1</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D29" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F29" s="1">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="G29" s="1">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="H29" s="1">
-        <v>36.1</v>
+        <v>35.6</v>
       </c>
       <c r="I29" s="1">
-        <v>9</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="J29" s="1">
-        <v>18.5</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="K29" s="1">
-        <v>0.48799999999999999</v>
+        <v>0.52</v>
       </c>
       <c r="L29" s="1">
-        <v>1.7</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M29" s="1">
-        <v>4.9000000000000004</v>
+        <v>3.7</v>
       </c>
       <c r="N29" s="1">
-        <v>0.35399999999999998</v>
+        <v>0.309</v>
       </c>
       <c r="O29" s="1">
-        <v>7.3</v>
+        <v>8.6</v>
       </c>
       <c r="P29" s="1">
-        <v>13.6</v>
+        <v>14.9</v>
       </c>
       <c r="Q29" s="1">
-        <v>0.53600000000000003</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="R29" s="1">
-        <v>0.53500000000000003</v>
+        <v>0.55100000000000005</v>
       </c>
       <c r="S29" s="1">
-        <v>5.4</v>
+        <v>4.7</v>
       </c>
       <c r="T29" s="1">
-        <v>7.7</v>
+        <v>6.5</v>
       </c>
       <c r="U29" s="1">
-        <v>0.71</v>
+        <v>0.73099999999999998</v>
       </c>
       <c r="V29" s="1">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="W29" s="1">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="X29" s="1">
-        <v>6</v>
+        <v>7.4</v>
       </c>
       <c r="Y29" s="1">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="Z29" s="1">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AA29" s="1">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="AB29" s="1">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="AC29" s="1">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AD29" s="1">
         <v>25.3</v>
@@ -4734,634 +4824,647 @@
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D30" t="s">
         <v>43</v>
       </c>
       <c r="E30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F30" s="1">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G30" s="1">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H30" s="1">
-        <v>35.6</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="I30" s="1">
-        <v>9.6999999999999993</v>
+        <v>9.9</v>
       </c>
       <c r="J30" s="1">
-        <v>18.600000000000001</v>
+        <v>18.2</v>
       </c>
       <c r="K30" s="1">
-        <v>0.52</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="L30" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="M30" s="1">
-        <v>3.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="N30" s="1">
-        <v>0.309</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="O30" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="P30" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="R30" s="1">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="S30" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="T30" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="U30" s="1">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="V30" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="W30" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="X30" s="1">
         <v>8.6</v>
       </c>
-      <c r="P30" s="1">
-        <v>14.9</v>
-      </c>
-      <c r="Q30" s="1">
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="R30" s="1">
-        <v>0.55100000000000005</v>
-      </c>
-      <c r="S30" s="1">
-        <v>4.7</v>
-      </c>
-      <c r="T30" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="U30" s="1">
-        <v>0.73099999999999998</v>
-      </c>
-      <c r="V30" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="W30" s="1">
-        <v>6</v>
-      </c>
-      <c r="X30" s="1">
-        <v>7.4</v>
-      </c>
       <c r="Y30" s="1">
-        <v>6.8</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="Z30" s="1">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="AA30" s="1">
         <v>0.6</v>
       </c>
       <c r="AB30" s="1">
-        <v>3.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AC30" s="1">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AD30" s="1">
-        <v>25.3</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="D31" t="s">
         <v>44</v>
       </c>
       <c r="E31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F31" s="1">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G31" s="1">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H31" s="1">
-        <v>37.799999999999997</v>
+        <v>36.9</v>
       </c>
       <c r="I31" s="1">
-        <v>9.9</v>
+        <v>10.5</v>
       </c>
       <c r="J31" s="1">
-        <v>18.2</v>
+        <v>19.3</v>
       </c>
       <c r="K31" s="1">
-        <v>0.54800000000000004</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="L31" s="1">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="M31" s="1">
-        <v>4.5999999999999996</v>
+        <v>5</v>
       </c>
       <c r="N31" s="1">
-        <v>0.36299999999999999</v>
+        <v>0.36699999999999999</v>
       </c>
       <c r="O31" s="1">
-        <v>8.3000000000000007</v>
+        <v>8.6</v>
       </c>
       <c r="P31" s="1">
-        <v>13.5</v>
+        <v>14.3</v>
       </c>
       <c r="Q31" s="1">
-        <v>0.61099999999999999</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="R31" s="1">
-        <v>0.59399999999999997</v>
+        <v>0.59</v>
       </c>
       <c r="S31" s="1">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="T31" s="1">
-        <v>7.2</v>
+        <v>6.5</v>
       </c>
       <c r="U31" s="1">
-        <v>0.67400000000000004</v>
+        <v>0.73099999999999998</v>
       </c>
       <c r="V31" s="1">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="W31" s="1">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="X31" s="1">
         <v>8.6</v>
       </c>
       <c r="Y31" s="1">
-        <v>8.6999999999999993</v>
+        <v>9.1</v>
       </c>
       <c r="Z31" s="1">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="AA31" s="1">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AB31" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="AC31" s="1">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AD31" s="1">
-        <v>26.4</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D32" t="s">
         <v>45</v>
       </c>
       <c r="E32" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F32" s="1">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="G32" s="1">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="H32" s="1">
-        <v>36.9</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="I32" s="1">
-        <v>10.5</v>
+        <v>10.1</v>
       </c>
       <c r="J32" s="1">
-        <v>19.3</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="K32" s="1">
-        <v>0.54200000000000004</v>
+        <v>0.51</v>
       </c>
       <c r="L32" s="1">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="M32" s="1">
-        <v>5</v>
+        <v>5.9</v>
       </c>
       <c r="N32" s="1">
-        <v>0.36699999999999999</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="O32" s="1">
-        <v>8.6</v>
+        <v>8.1</v>
       </c>
       <c r="P32" s="1">
-        <v>14.3</v>
+        <v>14</v>
       </c>
       <c r="Q32" s="1">
-        <v>0.60299999999999998</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="R32" s="1">
-        <v>0.59</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="S32" s="1">
-        <v>4.7</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="T32" s="1">
-        <v>6.5</v>
+        <v>7.6</v>
       </c>
       <c r="U32" s="1">
-        <v>0.73099999999999998</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="V32" s="1">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="W32" s="1">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X32" s="1">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="Y32" s="1">
-        <v>9.1</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="Z32" s="1">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AA32" s="1">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="AB32" s="1">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="AC32" s="1">
         <v>1.7</v>
       </c>
       <c r="AD32" s="1">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D33" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="E33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F33" s="1">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="G33" s="1">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="H33" s="1">
-        <v>35.200000000000003</v>
+        <v>34.6</v>
       </c>
       <c r="I33" s="1">
-        <v>10.1</v>
+        <v>9.6</v>
       </c>
       <c r="J33" s="1">
-        <v>19.899999999999999</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="K33" s="1">
-        <v>0.51</v>
+        <v>0.49299999999999999</v>
       </c>
       <c r="L33" s="1">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="M33" s="1">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
       <c r="N33" s="1">
-        <v>0.33900000000000002</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="O33" s="1">
-        <v>8.1</v>
+        <v>7.4</v>
       </c>
       <c r="P33" s="1">
-        <v>14</v>
+        <v>13.1</v>
       </c>
       <c r="Q33" s="1">
-        <v>0.58199999999999996</v>
+        <v>0.56399999999999995</v>
       </c>
       <c r="R33" s="1">
-        <v>0.56000000000000005</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="S33" s="1">
-        <v>5.0999999999999996</v>
+        <v>3.9</v>
       </c>
       <c r="T33" s="1">
-        <v>7.6</v>
+        <v>5.7</v>
       </c>
       <c r="U33" s="1">
-        <v>0.66500000000000004</v>
+        <v>0.69299999999999995</v>
       </c>
       <c r="V33" s="1">
         <v>1</v>
       </c>
       <c r="W33" s="1">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
       <c r="X33" s="1">
-        <v>8.5</v>
+        <v>7.8</v>
       </c>
       <c r="Y33" s="1">
-        <v>8.3000000000000007</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="Z33" s="1">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AA33" s="1">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AB33" s="1">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="AC33" s="1">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AD33" s="1">
-        <v>27.4</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D34" t="s">
         <v>59</v>
       </c>
       <c r="E34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F34" s="1">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="G34" s="1">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="H34" s="1">
-        <v>34.6</v>
+        <v>33.4</v>
       </c>
       <c r="I34" s="1">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="J34" s="1">
-        <v>19.399999999999999</v>
+        <v>18.3</v>
       </c>
       <c r="K34" s="1">
-        <v>0.49299999999999999</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="L34" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="M34" s="1">
         <v>6.3</v>
       </c>
       <c r="N34" s="1">
-        <v>0.34799999999999998</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="O34" s="1">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="P34" s="1">
-        <v>13.1</v>
+        <v>12</v>
       </c>
       <c r="Q34" s="1">
-        <v>0.56399999999999995</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="R34" s="1">
-        <v>0.55000000000000004</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="S34" s="1">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T34" s="1">
         <v>5.7</v>
       </c>
       <c r="U34" s="1">
-        <v>0.69299999999999995</v>
+        <v>0.69799999999999995</v>
       </c>
       <c r="V34" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="W34" s="1">
+        <v>7</v>
+      </c>
+      <c r="X34" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="Z34" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AA34" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="AB34" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="AC34" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="AD34" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="E37" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="W34" s="1">
-        <v>6.9</v>
-      </c>
-      <c r="X34" s="1">
-        <v>7.8</v>
-      </c>
-      <c r="Y34" s="1">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="Z34" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="AA34" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AB34" s="1">
-        <v>3.9</v>
-      </c>
-      <c r="AC34" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="AD34" s="1">
-        <v>25.3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>2021</v>
-      </c>
-      <c r="B35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" t="s">
-        <v>58</v>
-      </c>
-      <c r="D35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E35" t="s">
-        <v>57</v>
-      </c>
-      <c r="F35" s="1">
-        <v>45</v>
-      </c>
-      <c r="G35" s="1">
-        <v>45</v>
-      </c>
-      <c r="H35" s="1">
-        <v>33.4</v>
-      </c>
-      <c r="I35" s="1">
-        <v>9.4</v>
-      </c>
-      <c r="J35" s="1">
-        <v>18.3</v>
-      </c>
-      <c r="K35" s="1">
-        <v>0.51300000000000001</v>
-      </c>
-      <c r="L35" s="1">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="M35" s="1">
-        <v>6.3</v>
-      </c>
-      <c r="N35" s="1">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="O35" s="1">
-        <v>7.1</v>
-      </c>
-      <c r="P35" s="1">
+      <c r="F37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M37" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q35" s="1">
-        <v>0.59099999999999997</v>
-      </c>
-      <c r="R35" s="1">
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="S35" s="1">
-        <v>4</v>
-      </c>
-      <c r="T35" s="1">
-        <v>5.7</v>
-      </c>
-      <c r="U35" s="1">
-        <v>0.69799999999999995</v>
-      </c>
-      <c r="V35" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="W35" s="1">
-        <v>7</v>
-      </c>
-      <c r="X35" s="1">
-        <v>7.7</v>
-      </c>
-      <c r="Y35" s="1">
-        <v>7.8</v>
-      </c>
-      <c r="Z35" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AA35" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="AB35" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="AC35" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="AD35" s="1">
+      <c r="N37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R37" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U37" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V37" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X37" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z37" s="3" t="s">
         <v>25</v>
+      </c>
+      <c r="AA37" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB37" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC37" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD37" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="E38" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M38" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N38" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O38" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P38" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q38" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R38" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S38" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="T38" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="U38" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="V38" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="W38" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="X38" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y38" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z38" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA38" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB38" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC38" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD38" s="3" t="s">
-        <v>29</v>
+        <v>60</v>
+      </c>
+      <c r="F38" s="2">
+        <f>SUM(F2:F16)</f>
+        <v>1072</v>
+      </c>
+      <c r="G38" s="2">
+        <f>SUM(G2:G16)</f>
+        <v>1039</v>
+      </c>
+      <c r="H38" s="2">
+        <f>AVERAGE(H2:H16)</f>
+        <v>37.580000000000005</v>
+      </c>
+      <c r="I38" s="2">
+        <f>AVERAGE(I2:I16)</f>
+        <v>11.093333333333332</v>
+      </c>
+      <c r="J38" s="2">
+        <f>AVERAGE(J2:J16)</f>
+        <v>22.700000000000003</v>
+      </c>
+      <c r="K38" s="4">
+        <f>AVERAGE(K2:K16)</f>
+        <v>0.48826666666666668</v>
+      </c>
+      <c r="L38" s="2">
+        <f>AVERAGE(L2:L16)</f>
+        <v>0.54000000000000015</v>
+      </c>
+      <c r="M38" s="2">
+        <f>AVERAGE(M2:M16)</f>
+        <v>1.62</v>
+      </c>
+      <c r="N38" s="4">
+        <f>AVERAGE(N2:N16)</f>
+        <v>0.28393333333333337</v>
+      </c>
+      <c r="O38" s="2">
+        <f>AVERAGE(O2:O16)</f>
+        <v>10.566666666666666</v>
+      </c>
+      <c r="P38" s="2">
+        <f>AVERAGE(P2:P16)</f>
+        <v>21.073333333333331</v>
+      </c>
+      <c r="Q38" s="4">
+        <f>AVERAGE(Q2:Q16)</f>
+        <v>0.50066666666666682</v>
+      </c>
+      <c r="R38" s="4">
+        <f>AVERAGE(R2:R16)</f>
+        <v>0.5</v>
+      </c>
+      <c r="S38" s="2">
+        <f>AVERAGE(S2:S16)</f>
+        <v>6.7133333333333356</v>
+      </c>
+      <c r="T38" s="2">
+        <f>AVERAGE(T2:T16)</f>
+        <v>8.0666666666666664</v>
+      </c>
+      <c r="U38" s="4">
+        <f>AVERAGE(U2:U16)</f>
+        <v>0.83093333333333341</v>
+      </c>
+      <c r="V38" s="2">
+        <f>AVERAGE(V2:V16)</f>
+        <v>1.5133333333333332</v>
+      </c>
+      <c r="W38" s="2">
+        <f>AVERAGE(W2:W16)</f>
+        <v>4.5933333333333328</v>
+      </c>
+      <c r="X38" s="2">
+        <f>AVERAGE(X2:X16)</f>
+        <v>6.12</v>
+      </c>
+      <c r="Y38" s="2">
+        <f>AVERAGE(Y2:Y16)</f>
+        <v>5.14</v>
+      </c>
+      <c r="Z38" s="2">
+        <f>AVERAGE(Z2:Z16)</f>
+        <v>2.2933333333333334</v>
+      </c>
+      <c r="AA38" s="2">
+        <f>AVERAGE(AA2:AA16)</f>
+        <v>0.83333333333333348</v>
+      </c>
+      <c r="AB38" s="2">
+        <f>AVERAGE(AB2:AB16)</f>
+        <v>2.686666666666667</v>
+      </c>
+      <c r="AC38" s="2">
+        <f>AVERAGE(AC2:AC16)</f>
+        <v>2.5933333333333333</v>
+      </c>
+      <c r="AD38" s="2">
+        <f>AVERAGE(AD2:AD16)</f>
+        <v>29.45333333333333</v>
       </c>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.25">
@@ -5369,213 +5472,108 @@
         <v>61</v>
       </c>
       <c r="F39" s="2">
-        <f>SUM(F2:F16)</f>
-        <v>1072</v>
+        <f>SUM(F17:F33)</f>
+        <v>1265</v>
       </c>
       <c r="G39" s="2">
-        <f>SUM(G2:G16)</f>
-        <v>1039</v>
+        <f>SUM(G17:G33)</f>
+        <v>1264</v>
       </c>
       <c r="H39" s="2">
-        <f t="shared" ref="H39:AD39" si="0">AVERAGE(H2:H16)</f>
-        <v>37.580000000000005</v>
+        <f t="shared" ref="H39:AD39" si="0">AVERAGE(H17:H33)</f>
+        <v>38.264705882352949</v>
       </c>
       <c r="I39" s="2">
         <f t="shared" si="0"/>
-        <v>11.093333333333332</v>
+        <v>9.8647058823529381</v>
       </c>
       <c r="J39" s="2">
         <f t="shared" si="0"/>
-        <v>22.700000000000003</v>
+        <v>19.576470588235296</v>
       </c>
       <c r="K39" s="4">
         <f t="shared" si="0"/>
-        <v>0.48826666666666668</v>
+        <v>0.50558823529411756</v>
       </c>
       <c r="L39" s="2">
         <f t="shared" si="0"/>
-        <v>0.54000000000000015</v>
+        <v>1.4941176470588236</v>
       </c>
       <c r="M39" s="2">
         <f t="shared" si="0"/>
-        <v>1.62</v>
+        <v>4.3294117647058821</v>
       </c>
       <c r="N39" s="4">
         <f t="shared" si="0"/>
-        <v>0.28393333333333337</v>
+        <v>0.34376470588235303</v>
       </c>
       <c r="O39" s="2">
         <f t="shared" si="0"/>
-        <v>10.566666666666666</v>
+        <v>8.3764705882352928</v>
       </c>
       <c r="P39" s="2">
         <f t="shared" si="0"/>
-        <v>21.073333333333331</v>
+        <v>15.235294117647058</v>
       </c>
       <c r="Q39" s="4">
         <f t="shared" si="0"/>
-        <v>0.50066666666666682</v>
+        <v>0.5526470588235296</v>
       </c>
       <c r="R39" s="4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.54382352941176482</v>
       </c>
       <c r="S39" s="2">
         <f t="shared" si="0"/>
-        <v>6.7133333333333356</v>
+        <v>5.8176470588235301</v>
       </c>
       <c r="T39" s="2">
         <f t="shared" si="0"/>
-        <v>8.0666666666666664</v>
+        <v>7.958823529411764</v>
       </c>
       <c r="U39" s="4">
         <f t="shared" si="0"/>
-        <v>0.83093333333333341</v>
+        <v>0.73152941176470576</v>
       </c>
       <c r="V39" s="2">
         <f t="shared" si="0"/>
-        <v>1.5133333333333332</v>
+        <v>1.1941176470588233</v>
       </c>
       <c r="W39" s="2">
         <f t="shared" si="0"/>
-        <v>4.5933333333333328</v>
+        <v>6.2823529411764705</v>
       </c>
       <c r="X39" s="2">
         <f t="shared" si="0"/>
-        <v>6.12</v>
+        <v>7.4470588235294111</v>
       </c>
       <c r="Y39" s="2">
         <f t="shared" si="0"/>
-        <v>5.14</v>
+        <v>7.4117647058823541</v>
       </c>
       <c r="Z39" s="2">
         <f t="shared" si="0"/>
-        <v>2.2933333333333334</v>
+        <v>1.588235294117647</v>
       </c>
       <c r="AA39" s="2">
         <f t="shared" si="0"/>
-        <v>0.83333333333333348</v>
+        <v>0.74117647058823521</v>
       </c>
       <c r="AB39" s="2">
         <f t="shared" si="0"/>
-        <v>2.686666666666667</v>
+        <v>3.505882352941176</v>
       </c>
       <c r="AC39" s="2">
         <f t="shared" si="0"/>
-        <v>2.5933333333333333</v>
+        <v>1.8352941176470585</v>
       </c>
       <c r="AD39" s="2">
         <f t="shared" si="0"/>
-        <v>29.45333333333333</v>
+        <v>27.047058823529412</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="E40" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F40" s="2">
-        <f>SUM(F18:F34)</f>
-        <v>1265</v>
-      </c>
-      <c r="G40" s="2">
-        <f>SUM(G18:G34)</f>
-        <v>1264</v>
-      </c>
-      <c r="H40" s="2">
-        <f t="shared" ref="H40:AD40" si="1">AVERAGE(H18:H34)</f>
-        <v>38.264705882352949</v>
-      </c>
-      <c r="I40" s="2">
-        <f t="shared" si="1"/>
-        <v>9.8647058823529381</v>
-      </c>
-      <c r="J40" s="2">
-        <f t="shared" si="1"/>
-        <v>19.576470588235296</v>
-      </c>
-      <c r="K40" s="4">
-        <f t="shared" si="1"/>
-        <v>0.50558823529411756</v>
-      </c>
-      <c r="L40" s="2">
-        <f t="shared" si="1"/>
-        <v>1.4941176470588236</v>
-      </c>
-      <c r="M40" s="2">
-        <f t="shared" si="1"/>
-        <v>4.3294117647058821</v>
-      </c>
-      <c r="N40" s="4">
-        <f t="shared" si="1"/>
-        <v>0.34376470588235303</v>
-      </c>
-      <c r="O40" s="2">
-        <f t="shared" si="1"/>
-        <v>8.3764705882352928</v>
-      </c>
-      <c r="P40" s="2">
-        <f t="shared" si="1"/>
-        <v>15.235294117647058</v>
-      </c>
-      <c r="Q40" s="4">
-        <f t="shared" si="1"/>
-        <v>0.5526470588235296</v>
-      </c>
-      <c r="R40" s="4">
-        <f t="shared" si="1"/>
-        <v>0.54382352941176482</v>
-      </c>
-      <c r="S40" s="2">
-        <f t="shared" si="1"/>
-        <v>5.8176470588235301</v>
-      </c>
-      <c r="T40" s="2">
-        <f t="shared" si="1"/>
-        <v>7.958823529411764</v>
-      </c>
-      <c r="U40" s="4">
-        <f t="shared" si="1"/>
-        <v>0.73152941176470576</v>
-      </c>
-      <c r="V40" s="2">
-        <f t="shared" si="1"/>
-        <v>1.1941176470588233</v>
-      </c>
-      <c r="W40" s="2">
-        <f t="shared" si="1"/>
-        <v>6.2823529411764705</v>
-      </c>
-      <c r="X40" s="2">
-        <f t="shared" si="1"/>
-        <v>7.4470588235294111</v>
-      </c>
-      <c r="Y40" s="2">
-        <f t="shared" si="1"/>
-        <v>7.4117647058823541</v>
-      </c>
-      <c r="Z40" s="2">
-        <f t="shared" si="1"/>
-        <v>1.588235294117647</v>
-      </c>
-      <c r="AA40" s="2">
-        <f t="shared" si="1"/>
-        <v>0.74117647058823521</v>
-      </c>
-      <c r="AB40" s="2">
-        <f t="shared" si="1"/>
-        <v>3.505882352941176</v>
-      </c>
-      <c r="AC40" s="2">
-        <f t="shared" si="1"/>
-        <v>1.8352941176470585</v>
-      </c>
-      <c r="AD40" s="2">
-        <f t="shared" si="1"/>
-        <v>27.047058823529412</v>
-      </c>
-    </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="R46">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="R45">
         <v>5</v>
       </c>
     </row>
